--- a/loaded_influencer_data/mvrychen/mvrychen_video.xlsx
+++ b/loaded_influencer_data/mvrychen/mvrychen_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,130 +506,583 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@mvrychen/video/7489590252223368479</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>74000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10500</v>
+      </c>
+      <c r="D2" t="n">
+        <v>35</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1407</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Here are some of my favorite makeup products that I’ll definitely repurchase during the sephora sale 💸👛</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>14.23648648648649</v>
+      </c>
+      <c r="I2" t="n">
+        <v>14.18918918918919</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0472972972972973</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.901351351351351</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@mvrychen/video/7489484115662736671</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>35600</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6625</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>345</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Good morning ☀️ #grwm #skincare
+@haruharu wonder soft cleansing gel
+@anua_global toner, sunscreen
+@Tatcha</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>18.6938202247191</v>
+      </c>
+      <c r="I3" t="n">
+        <v>18.60955056179775</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.08426966292134831</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.9691011235955057</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@mvrychen/video/7489231937786187039</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>19500</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1822</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>57</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>How do we feel about this one? Will upload the other units in these buildings soon! #apartment #apartmenthunting #nyc</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9.435897435897436</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.343589743589744</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0923076923076923</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2923076923076923</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@mvrychen/video/7489192793567481118</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>21400</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1882</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>53</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Grateful this one didn’t work out for us haha #apartment #apartmenthunting #nyc #furniture</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8.878504672897195</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8.794392523364486</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.08411214953271028</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.2476635514018692</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@mvrychen/video/7489190783325654303</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>75000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9194</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>689</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Grateful this one didn’t work out for us haha #apartment #apartmenthunting #nyc #furniture</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12.25866666666667</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.04133333333333333</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9186666666666666</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@mvrychen/video/7489126534096211231</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8655</v>
+      </c>
+      <c r="C7" t="n">
+        <v>498</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>21</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>@Ultra Violette Australian SPF sunscreens finally touched down in the US. Stock up on your SPF faves while they’re on sale at Sephora! 🧴☀️</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5.84633160023108</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.753899480069324</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.09243212016175621</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.24263431542461</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@mvrychen/video/7489124119724707102</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>89000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15400</v>
+      </c>
+      <c r="D8" t="n">
+        <v>228</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1061</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>@Ultra Violette Australian SPF sunscreens finally touched down in the US. Stock up on your SPF faves while they’re on sale at Sephora! 🧴☀️</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>17.55955056179775</v>
+      </c>
+      <c r="I8" t="n">
+        <v>17.30337078651685</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2561797752808989</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.192134831460674</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@mvrychen/video/7488886812908211486</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>12300</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1334</v>
+      </c>
+      <c r="D9" t="n">
+        <v>17</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>80</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Melting away a full face of makeup has never smelled this good 🍒✨ The new Pro-Collagen Black Cherry Cleansing Balm from</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10.98373983739837</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10.84552845528455</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.1382113821138211</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.6504065040650406</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@mvrychen/video/7488884943800569119</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>14600</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1630</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>72</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>#grwm I was talking so much because I was nervous but I ended up not even getting my tooth taken out because of complications lol</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>11.26027397260274</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11.16438356164384</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.4931506849315068</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7486643681898892574</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B11" t="n">
         <v>20100</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C11" t="n">
         <v>1888</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D11" t="n">
         <v>14</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>130</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>My easy 5 minute bronze and flushed makeup routine for spring/summer 🌅🧡
 @cleardea @Song Of Skin</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="H11" t="n">
         <v>9.462686567164178</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I11" t="n">
         <v>9.393034825870647</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.06965174129353234</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L11" t="n">
         <v>0.6467661691542288</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7486143010187644190</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B12" t="n">
         <v>58100</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C12" t="n">
         <v>10500</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D12" t="n">
         <v>20</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>458</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>#grwm #morningroutine
 @haruharu wonder Official US soft cleansing gel
 @anua_global rice ceramide serum</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="H12" t="n">
         <v>18.10671256454389</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I12" t="n">
         <v>18.07228915662651</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.03442340791738382</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L12" t="n">
         <v>0.7882960413080895</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7485953822037232926</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B13" t="n">
         <v>17600</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C13" t="n">
         <v>2042</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D13" t="n">
         <v>9</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>104</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>PM skincare time 🌙⏰
 @Biodance toner pad
@@ -637,303 +1090,303 @@
 @Genabelle USA x @Song Of Skin PDRN lip glaze treatment</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="H13" t="n">
         <v>11.65340909090909</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I13" t="n">
         <v>11.60227272727273</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.05113636363636364</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L13" t="n">
         <v>0.5909090909090909</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7485808892157381918</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B14" t="n">
         <v>247700</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C14" t="n">
         <v>21900</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D14" t="n">
         <v>118</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>2086</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Trying all the shades of the new @Rare Beauty Soft Pinch Matte Bouncy Blush. Which shade was your favorite? 🩷❤️</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H14" t="n">
         <v>8.888978603148971</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I14" t="n">
         <v>8.84134033104562</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.04763827210335082</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L14" t="n">
         <v>0.8421477593863546</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7485767241737194783</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B15" t="n">
         <v>89600</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C15" t="n">
         <v>14800</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D15" t="n">
         <v>62</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>748</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>This album has been on repeat 🩷 #grwm #morningroutine #morningskincareroutine
 My sister’s room grey fluffy creature</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H15" t="n">
         <v>16.58705357142857</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I15" t="n">
         <v>16.51785714285714</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.06919642857142856</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L15" t="n">
         <v>0.8348214285714285</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7485472035947154719</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B16" t="n">
         <v>17400</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C16" t="n">
         <v>1472</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D16" t="n">
         <v>17</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>153</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>My base never looked more flawless thanks to the Waterfull Tone-Up Sunscreen. Available on Amazon! #dalba</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H16" t="n">
         <v>8.557471264367816</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I16" t="n">
         <v>8.459770114942529</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.09770114942528735</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L16" t="n">
         <v>0.8793103448275863</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7485441785561369887</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B17" t="n">
         <v>12900</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C17" t="n">
         <v>875</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D17" t="n">
         <v>17</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>52</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Wowza 🤩</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H17" t="n">
         <v>6.914728682170542</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I17" t="n">
         <v>6.782945736434108</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.1317829457364341</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L17" t="n">
         <v>0.4031007751937984</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7485124617242234142</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B18" t="n">
         <v>706200</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C18" t="n">
         <v>69400</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D18" t="n">
         <v>418</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>4505</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Wowza 🤩</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H18" t="n">
         <v>9.886434437836307</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I18" t="n">
         <v>9.82724440668366</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.05919003115264797</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L18" t="n">
         <v>0.6379212687623903</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7485120532619234590</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B19" t="n">
         <v>101300</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C19" t="n">
         <v>7508</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D19" t="n">
         <v>30</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>762</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Happy Sunday skin reset day ☀️🧖🏻‍♀️
 @SKIN1004 US clay stick
@@ -941,556 +1394,556 @@
 @anua_global rice ceramide serum</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H19" t="n">
         <v>7.441263573543928</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I19" t="n">
         <v>7.411648568608095</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.02961500493583415</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L19" t="n">
         <v>0.7522211253701876</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7484852647804112159</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B20" t="n">
         <v>148600</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C20" t="n">
         <v>19700</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D20" t="n">
         <v>74</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>2291</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Get ready for bed with me 🌙
 Cleansing balm @dr.althea_official
 Facial cleanser</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H20" t="n">
         <v>13.30686406460296</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I20" t="n">
         <v>13.25706594885599</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.04979811574697174</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L20" t="n">
         <v>1.541722745625841</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7484809008373697822</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B21" t="n">
         <v>45000</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C21" t="n">
         <v>4115</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>408</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>HOLY GRAIL! This Face Mist primes the skin for a flawless makeup application and keeps it fresh and dewy all day long. Grab yours</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H21" t="n">
         <v>9.18888888888889</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I21" t="n">
         <v>9.144444444444444</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.04444444444444445</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L21" t="n">
         <v>0.9066666666666667</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7484361271266004255</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B22" t="n">
         <v>27300</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C22" t="n">
         <v>1774</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D22" t="n">
         <v>25</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>169</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>HOLY GRAIL! This Face Mist primes the skin for a flawless makeup application and keeps it fresh and dewy all day long. Grab yours</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H22" t="n">
         <v>6.589743589743589</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I22" t="n">
         <v>6.498168498168498</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.09157509157509157</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L22" t="n">
         <v>0.6190476190476191</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7484037937106128159</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B23" t="n">
         <v>77100</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C23" t="n">
         <v>10100</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D23" t="n">
         <v>54</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>885</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>What’s in my everyday bag 👛 Spoiler it’s the @LOCCITANE hand cream #loccitanepartner</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H23" t="n">
         <v>13.16990920881971</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I23" t="n">
         <v>13.09987029831388</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.07003891050583658</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L23" t="n">
         <v>1.147859922178988</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7483591726821559582</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B24" t="n">
         <v>22100</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C24" t="n">
         <v>1519</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D24" t="n">
         <v>18</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>122</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Beauty meets sustainability. @EcoTools ’ new sea gems brush collection is the definition of impactful beauty 🐚🏝️✨💗</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H24" t="n">
         <v>6.954751131221719</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I24" t="n">
         <v>6.873303167420815</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.08144796380090498</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L24" t="n">
         <v>0.5520361990950227</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7483590092699864350</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B25" t="n">
         <v>38500</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C25" t="n">
         <v>5177</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D25" t="n">
         <v>13</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>254</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Beauty meets sustainability. @EcoTools ’ new sea gems brush collection is the definition of impactful beauty 🐚🏝️✨💗</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H25" t="n">
         <v>13.48051948051948</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I25" t="n">
         <v>13.44675324675325</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.03376623376623377</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L25" t="n">
         <v>0.6597402597402597</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7483243313038888223</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B26" t="n">
         <v>54500</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C26" t="n">
         <v>7368</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D26" t="n">
         <v>40</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>410</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Get ready with me for a coffee date ☕️🤎</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H26" t="n">
         <v>13.59266055045872</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I26" t="n">
         <v>13.51926605504587</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.07339449541284404</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L26" t="n">
         <v>0.7522935779816514</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7483221595696188702</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B27" t="n">
         <v>260899</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C27" t="n">
         <v>33000</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D27" t="n">
         <v>87</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>4845</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>#morningroutine #grwm #skincare
 @haruharu wonder soft cleansing gel
 @Medicube Global toner pad</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H27" t="n">
         <v>12.68191905679976</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I27" t="n">
         <v>12.64857281936688</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.03334623743287632</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L27" t="n">
         <v>1.857040463934319</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7482899767912189214</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B28" t="n">
         <v>60100</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C28" t="n">
         <v>5433</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D28" t="n">
         <v>25</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>602</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Watch the one minute clay mask from SU:M 37 change color as it detoxifies and leaves your skin feeling fresh and smooth 😶‍🌫️</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H28" t="n">
         <v>9.081530782029951</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I28" t="n">
         <v>9.039933444259567</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.04159733777038269</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L28" t="n">
         <v>1.001663893510815</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7482859856311962910</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B29" t="n">
         <v>577100</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C29" t="n">
         <v>91600</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D29" t="n">
         <v>123</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>22100</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Update (sorry for taking so long): it’s the @aerie sunnie demi push up bra</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H29" t="n">
         <v>15.89377924103275</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I29" t="n">
         <v>15.87246577716167</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.02131346387107954</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L29" t="n">
         <v>3.829492289031364</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7482797850661883166</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B30" t="n">
         <v>58300</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C30" t="n">
         <v>5969</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D30" t="n">
         <v>33</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>360</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Good morning #grwm 💞
 @haruharu wonder cleansing gel
@@ -1498,306 +1951,306 @@
 @anua_global rice ceramide serum</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H30" t="n">
         <v>10.29502572898799</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I30" t="n">
         <v>10.23842195540309</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.05660377358490566</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L30" t="n">
         <v>0.6174957118353345</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7481869960302578975</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B31" t="n">
         <v>297100</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C31" t="n">
         <v>27800</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D31" t="n">
         <v>99</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>3721</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>This is how I do my PM skincare routine in order 🧴💗
 @ROUND LAB oil cleanser
 @haruharu wonder</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H31" t="n">
         <v>9.390440928980141</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I31" t="n">
         <v>9.357118815213733</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.03332211376640862</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L31" t="n">
         <v>1.252440255806126</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7481855208268598558</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B32" t="n">
         <v>48900</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C32" t="n">
         <v>3516</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D32" t="n">
         <v>17</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>214</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Sleepy girl will always be my fav blush 🤍</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H32" t="n">
         <v>7.224948875255624</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I32" t="n">
         <v>7.190184049079755</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.03476482617586912</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L32" t="n">
         <v>0.4376278118609407</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7481830523715865886</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B33" t="n">
         <v>599100</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C33" t="n">
         <v>29500</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D33" t="n">
         <v>84</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>4871</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>I love how the @SKIN1004 US tone brightening capsules ampoule is so gentle but effective at fading my dark spots 🖤</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H33" t="n">
         <v>4.938073777332665</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I33" t="n">
         <v>4.924052745785345</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.01402103154732098</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L33" t="n">
         <v>0.813052912702387</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7481315726175784222</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B34" t="n">
         <v>71100</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C34" t="n">
         <v>6717</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>490</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>First spring glam of the year 💗🕊️
 @Anastasia Beverly Hills brow pomade
 @Morphe Cosmetics brush</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H34" t="n">
         <v>9.49367088607595</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I34" t="n">
         <v>9.447257383966244</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.04641350210970464</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L34" t="n">
         <v>0.6891701828410689</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7481310351141653791</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B35" t="n">
         <v>77100</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C35" t="n">
         <v>9424</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D35" t="n">
         <v>41</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>1291</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Good morning ☀️ Do my glowy morning skincare routine with me as someone who has sensitive skin</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H35" t="n">
         <v>12.27626459143969</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I35" t="n">
         <v>12.2230869001297</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.05317769130998704</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L35" t="n">
         <v>1.674448767833982</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7481008834480295199</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B36" t="n">
         <v>302100</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C36" t="n">
         <v>52300</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D36" t="n">
         <v>143</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>4127</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>#grwm
 @Anastasia Beverly Hills brow pomade
@@ -1805,52 +2258,52 @@
 @Hourglass Cosmetics</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H36" t="n">
         <v>17.35948361469712</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I36" t="n">
         <v>17.31214829526647</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.0473353194306521</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L36" t="n">
         <v>1.366103939093016</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7480734440042286366</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B37" t="n">
         <v>59700</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C37" t="n">
         <v>6047</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D37" t="n">
         <v>21</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>439</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>#grwm
 @Anastasia Beverly Hills brow pomade
@@ -1858,204 +2311,204 @@
 @Hourglass Cosmetics</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H37" t="n">
         <v>10.1641541038526</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I37" t="n">
         <v>10.12897822445561</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.03517587939698492</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L37" t="n">
         <v>0.7353433835845896</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7480682883091385631</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B38" t="n">
         <v>60800</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C38" t="n">
         <v>8201</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D38" t="n">
         <v>36</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>598</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Feeling very pretty with my new lip combo from @MERIT Beauty 💋💄
 Lip liner in coupé
 Lip oil in Pointelle</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H38" t="n">
         <v>13.54769736842105</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I38" t="n">
         <v>13.48848684210526</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.05921052631578948</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L38" t="n">
         <v>0.9835526315789473</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7480285386271460638</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B39" t="n">
         <v>174200</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C39" t="n">
         <v>12200</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D39" t="n">
         <v>60</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>571</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Lesson learned to always listen to my skin #skincare #fyp</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H39" t="n">
         <v>7.037887485648679</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I39" t="n">
         <v>7.003444316877153</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.03444316877152698</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L39" t="n">
         <v>0.3277841561423651</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7480251943722503454</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B40" t="n">
         <v>52600</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C40" t="n">
         <v>5946</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D40" t="n">
         <v>53</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>335</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Spend a very cas day with me woohoo! Tldw: grwm, thrifting, apartment hunting, dinner, netflix 🍿🍾 #vlog</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H40" t="n">
         <v>11.40494296577947</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I40" t="n">
         <v>11.3041825095057</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.1007604562737643</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L40" t="n">
         <v>0.6368821292775665</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7479844998788287774</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B41" t="n">
         <v>266500</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C41" t="n">
         <v>33300</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D41" t="n">
         <v>96</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>2436</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Get ready for bed with me 🌙 💤
 @ROUND LAB oil cleanser
@@ -2063,455 +2516,455 @@
 @Medicube Global toner pad</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H41" t="n">
         <v>12.53133208255159</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I41" t="n">
         <v>12.4953095684803</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.03602251407129456</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L41" t="n">
         <v>0.9140712945590995</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7479595554943651103</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B42" t="n">
         <v>152900</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C42" t="n">
         <v>9788</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D42" t="n">
         <v>25</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>635</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Paradise Big Deal Mascara is a BIG deal for a reason. Longer, fuller lashes with insane volume! @loréal paris usa</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H42" t="n">
         <v>6.417920209287116</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I42" t="n">
         <v>6.401569653368215</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.01635055591890124</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L42" t="n">
         <v>0.4153041203400916</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7479493551861107998</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B43" t="n">
         <v>37100</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C43" t="n">
         <v>2722</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D43" t="n">
         <v>20</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>161</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Subtle but a little darker and different 🖤 #grwm #makeup #goingout
 @YSL Beauty eyeshadow</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H43" t="n">
         <v>7.390835579514825</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I43" t="n">
         <v>7.336927223719676</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.05390835579514825</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L43" t="n">
         <v>0.4339622641509434</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7479163181798100254</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B44" t="n">
         <v>33800</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C44" t="n">
         <v>2615</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D44" t="n">
         <v>17</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>212</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>The perfect lightweight duo for hydrated and protected skin for the spring ☀️🌸 Available everywhere @Tatcha is sold</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H44" t="n">
         <v>7.78698224852071</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I44" t="n">
         <v>7.736686390532545</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.05029585798816567</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L44" t="n">
         <v>0.6272189349112426</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7479148772069510430</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B45" t="n">
         <v>234700</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C45" t="n">
         <v>37100</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D45" t="n">
         <v>112</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>3724</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>My morning skincare routine in order 🧴⏰
 @aestura_us face wash, serum, moisturizer
 @anua_global rice ceramide serum, sunscreen</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H45" t="n">
         <v>15.85513421389007</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I45" t="n">
         <v>15.8074137196421</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.04772049424797614</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L45" t="n">
         <v>1.586706433745207</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7478894990211419423</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B46" t="n">
         <v>760200</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C46" t="n">
         <v>18300</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D46" t="n">
         <v>53</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>1817</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Trying all the shades of the @Maybelline NY Super Stay Teddy Tint and it might be my new favorite for a night out 🧸⭐️</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H46" t="n">
         <v>2.414233096553538</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I46" t="n">
         <v>2.407261247040253</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.006971849513285978</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L46" t="n">
         <v>0.2390160484083136</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7478852774013324574</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B47" t="n">
         <v>140700</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C47" t="n">
         <v>10000</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D47" t="n">
         <v>47</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>2615</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Trying all the shades of the @Maybelline NY Super Stay Teddy Tint and it might be my new favorite for a night out 🧸⭐️</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H47" t="n">
         <v>7.140724946695095</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I47" t="n">
         <v>7.107320540156362</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.0334044065387349</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L47" t="n">
         <v>1.858564321250888</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7478462085945363742</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B48" t="n">
         <v>1000000</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C48" t="n">
         <v>165100</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D48" t="n">
         <v>388</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>20000</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>PSA to all my basic tank lovers 🤍</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H48" t="n">
         <v>16.5488</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I48" t="n">
         <v>16.51</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.0388</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L48" t="n">
         <v>2</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7478428658797956383</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B49" t="n">
         <v>110100</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C49" t="n">
         <v>10100</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D49" t="n">
         <v>45</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>868</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Rule of thumb is to keep your skincare routine simple if you have sensitive or irritated skin hehe 💙</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H49" t="n">
         <v>9.214350590372389</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I49" t="n">
         <v>9.173478655767484</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.04087193460490463</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L49" t="n">
         <v>0.7883742052679382</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7478380212976192798</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B50" t="n">
         <v>267100</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C50" t="n">
         <v>45300</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D50" t="n">
         <v>101</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>3078</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>#grwm #makeup
 @Anastasia Beverly Hills brow pomade
@@ -2519,490 +2972,78 @@
 @SHISEIDO eyelash curler</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H50" t="n">
         <v>16.99775365031823</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I50" t="n">
         <v>16.95994009734182</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.03781355297641333</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L50" t="n">
         <v>1.152377386746537</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@mvrychen/video/7478166610549755167</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B51" t="n">
         <v>103300</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C51" t="n">
         <v>5894</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D51" t="n">
         <v>97</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>807</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>My brutally honest thoughts on the @PURITO SEOUL Panthenol Cream 🫣
 #Purito #PanthenolCream</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H51" t="n">
         <v>5.799612778315585</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I51" t="n">
         <v>5.705711519845112</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.09390125847047434</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L51" t="n">
         <v>0.7812197483059051</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-03-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@mvrychen/video/7478113237637074206</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>66600</v>
-      </c>
-      <c r="C43" t="n">
-        <v>7339</v>
-      </c>
-      <c r="D43" t="n">
-        <v>28</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>478</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Grwm 💗 #skincare
-@aestura_us gentle cleanser, serum, cream
-@Tatcha lip mask
-@SKIN1004 US serum</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>11.06156156156156</v>
-      </c>
-      <c r="I43" t="n">
-        <v>11.01951951951952</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.04204204204204205</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.7177177177177178</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@mvrychen/video/7477804184436247839</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>188500</v>
-      </c>
-      <c r="C44" t="n">
-        <v>28500</v>
-      </c>
-      <c r="D44" t="n">
-        <v>96</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1886</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Get ready for bed with me 💭💤
-@rhode skin barrier butter
-@celimax.global noni ampoule
-@Biodance skin glow essence cream</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>15.17029177718833</v>
-      </c>
-      <c r="I44" t="n">
-        <v>15.11936339522546</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.05092838196286472</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1.00053050397878</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@mvrychen/video/7477733215080353054</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>389700</v>
-      </c>
-      <c r="C45" t="n">
-        <v>4849</v>
-      </c>
-      <c r="D45" t="n">
-        <v>27</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>355</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Been obsessed with the @LOCCITANE Almond Shower Oil lately, it makes my skin so soft and smell incredible</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>1.251218886322812</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1.2442904798563</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.006928406466512702</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.09109571465229664</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@mvrychen/video/7477350891373317407</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>101100</v>
-      </c>
-      <c r="C46" t="n">
-        <v>9243</v>
-      </c>
-      <c r="D46" t="n">
-        <v>52</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>626</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Double cleansing is a must on days when I wear makeup or whenever there’s too much buildup on my skin 😶‍🌫️</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>9.193867457962414</v>
-      </c>
-      <c r="I46" t="n">
-        <v>9.142433234421365</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.05143422354104847</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.619188921859545</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@mvrychen/video/7477230627931147550</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>41200</v>
-      </c>
-      <c r="C47" t="n">
-        <v>3318</v>
-      </c>
-      <c r="D47" t="n">
-        <v>27</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>222</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Good morning ☀️ Happy Sunday hehe
-@Tatcha sunscreen
-@Anastasia Beverly Hills brow pomade</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>8.118932038834952</v>
-      </c>
-      <c r="I47" t="n">
-        <v>8.053398058252426</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.06553398058252427</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.5388349514563107</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@mvrychen/video/7476658526794943774</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>52700</v>
-      </c>
-      <c r="C48" t="n">
-        <v>3200</v>
-      </c>
-      <c r="D48" t="n">
-        <v>29</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>291</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Lumi Le Glass Stick = effortless glass skin glow ✨ @loréal paris usa
-#lorealparispartner
-#lorealparismakeup</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>6.127134724857685</v>
-      </c>
-      <c r="I48" t="n">
-        <v>6.072106261859583</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.05502846299810246</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.5521821631878557</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-03-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@mvrychen/video/7476585215322770718</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>55800</v>
-      </c>
-      <c r="C49" t="n">
-        <v>7736</v>
-      </c>
-      <c r="D49" t="n">
-        <v>64</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>333</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Spend the day with me at my first shoot with one of my childhood brands ⭐️ Probs the coolest thing I’ve done so far</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>13.97849462365591</v>
-      </c>
-      <c r="I49" t="n">
-        <v>13.86379928315412</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.1146953405017921</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.5967741935483871</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-03-01</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@mvrychen/video/7476547753238170911</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>37000</v>
-      </c>
-      <c r="C50" t="n">
-        <v>2883</v>
-      </c>
-      <c r="D50" t="n">
-        <v>17</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>199</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Get ready with me for the coolest job ever 🤫
-@LaRochePosayUS gentle cleanser
-@Tatcha</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>7.837837837837839</v>
-      </c>
-      <c r="I50" t="n">
-        <v>7.791891891891892</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.04594594594594595</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.5378378378378379</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-03-01</t>
         </is>
       </c>
     </row>
